--- a/meta/en/8-7-1.xlsx
+++ b/meta/en/8-7-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>8.7.1. Proportion and number of children aged 5-17 years engaged in child labour, by sex and age</t>
   </si>
   <si>
-    <t xml:space="preserve"> National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The number of children engaged in child labour corresponds to the number of children reported to be in child labour during the reference period (usually the week prior to the survey).</t>
   </si>
   <si>
@@ -161,6 +146,21 @@
   </si>
   <si>
     <t xml:space="preserve">KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io </t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="291" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
